--- a/grabDoll/config/task.xlsx
+++ b/grabDoll/config/task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>config_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,18 +50,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>任务奖励</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>award</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taskType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>hero</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>mainType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>任务分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,11 +86,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>["hero",0,1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大土豪</t>
+    <t>花掉100金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二阶任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"gold":100,"exp":100}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务类型(和图标有关系)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享有礼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_hero</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -90,47 +114,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>花掉100金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["cost",gold,100]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二阶任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打劫10次 战斗10次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["rob",0,10],["fight",0,10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"gold":100,"exp":100}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务类型(和图标有关系)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>taskType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mainType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>award</t>
+    <t>rob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>share</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action_target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挥金如土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打劫10次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享10次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>share</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fight</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -488,11 +523,12 @@
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="4" width="21.25" customWidth="1"/>
     <col min="5" max="5" width="18.875" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="46.375" customWidth="1"/>
+    <col min="6" max="7" width="27.875" customWidth="1"/>
+    <col min="8" max="8" width="40.625" customWidth="1"/>
+    <col min="9" max="9" width="46.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -500,10 +536,10 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -512,10 +548,16 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -523,22 +565,28 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
         <v>28</v>
       </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>100001</v>
       </c>
@@ -546,65 +594,112 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>100002</v>
       </c>
       <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>100003</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>100004</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/grabDoll/config/task.xlsx
+++ b/grabDoll/config/task.xlsx
@@ -515,7 +515,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -605,9 +605,6 @@
       <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
         <v>1</v>
       </c>
@@ -663,9 +660,6 @@
       <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
         <v>10</v>
       </c>
@@ -691,9 +685,6 @@
       </c>
       <c r="F6" t="s">
         <v>25</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
       </c>
       <c r="H6">
         <v>10</v>

--- a/grabDoll/config/task.xlsx
+++ b/grabDoll/config/task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>config_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,6 +166,14 @@
   </si>
   <si>
     <t>fight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活跃度奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>point</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -526,9 +534,10 @@
     <col min="6" max="7" width="27.875" customWidth="1"/>
     <col min="8" max="8" width="40.625" customWidth="1"/>
     <col min="9" max="9" width="46.375" customWidth="1"/>
+    <col min="10" max="10" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -556,8 +565,11 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -585,8 +597,11 @@
       <c r="I2" t="s">
         <v>9</v>
       </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>100001</v>
       </c>
@@ -611,8 +626,11 @@
       <c r="I3" t="s">
         <v>16</v>
       </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>100002</v>
       </c>
@@ -640,8 +658,11 @@
       <c r="I4" t="s">
         <v>16</v>
       </c>
+      <c r="J4">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>100003</v>
       </c>
@@ -666,8 +687,11 @@
       <c r="I5" t="s">
         <v>19</v>
       </c>
+      <c r="J5">
+        <v>50</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>100004</v>
       </c>
@@ -691,6 +715,9 @@
       </c>
       <c r="I6" t="s">
         <v>19</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/grabDoll/config/task.xlsx
+++ b/grabDoll/config/task.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>config_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,14 +174,65 @@
   </si>
   <si>
     <t>point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务抓娃娃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guild</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一阶段的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务掠夺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2阶段的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务魔法屋合成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3阶段的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>artifact</t>
+  </si>
+  <si>
+    <t>第4阶段的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pve</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,8 +268,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -234,7 +288,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -308,7 +362,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -343,7 +396,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -519,14 +571,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="4" width="21.25" customWidth="1"/>
@@ -537,7 +589,7 @@
     <col min="10" max="10" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -569,7 +621,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -601,7 +653,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>100001</v>
       </c>
@@ -630,7 +682,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>100002</v>
       </c>
@@ -662,7 +714,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>100003</v>
       </c>
@@ -691,7 +743,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>100004</v>
       </c>
@@ -718,6 +770,135 @@
       </c>
       <c r="J6">
         <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>100005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>100006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>100007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>100008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="1">
+        <v>30002</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>100009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11">
+        <v>80001</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="H12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -727,12 +908,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -740,12 +921,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/grabDoll/config/task.xlsx
+++ b/grabDoll/config/task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>config_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,6 +225,14 @@
   </si>
   <si>
     <t>pve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一个任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>next_task</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -587,9 +595,10 @@
     <col min="8" max="8" width="40.625" customWidth="1"/>
     <col min="9" max="9" width="46.375" customWidth="1"/>
     <col min="10" max="10" width="14.25" customWidth="1"/>
+    <col min="11" max="11" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -620,8 +629,11 @@
       <c r="J1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -652,8 +664,11 @@
       <c r="J2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>100001</v>
       </c>
@@ -682,7 +697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>100002</v>
       </c>
@@ -714,7 +729,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>100003</v>
       </c>
@@ -743,7 +758,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>100004</v>
       </c>
@@ -772,7 +787,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>100005</v>
       </c>
@@ -794,8 +809,11 @@
       <c r="H7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7">
+        <v>100006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>100006</v>
       </c>
@@ -817,8 +835,11 @@
       <c r="H8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <v>100007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>100007</v>
       </c>
@@ -843,8 +864,11 @@
       <c r="H9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <v>100008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>100008</v>
       </c>
@@ -869,8 +893,11 @@
       <c r="H10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <v>100009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>100009</v>
       </c>
@@ -895,8 +922,11 @@
       <c r="H11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11">
+        <v>100010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="H12">
         <v>1</v>
       </c>

--- a/grabDoll/config/task.xlsx
+++ b/grabDoll/config/task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>config_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,10 +201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NPC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新手任务魔法屋合成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,14 +221,6 @@
   </si>
   <si>
     <t>pve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一个任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>next_task</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -595,10 +583,9 @@
     <col min="8" max="8" width="40.625" customWidth="1"/>
     <col min="9" max="9" width="46.375" customWidth="1"/>
     <col min="10" max="10" width="14.25" customWidth="1"/>
-    <col min="11" max="11" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -629,11 +616,8 @@
       <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -664,11 +648,8 @@
       <c r="J2" t="s">
         <v>39</v>
       </c>
-      <c r="K2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>100001</v>
       </c>
@@ -697,7 +678,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>100002</v>
       </c>
@@ -729,7 +710,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>100003</v>
       </c>
@@ -758,7 +739,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>100004</v>
       </c>
@@ -787,7 +768,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>100005</v>
       </c>
@@ -809,11 +790,8 @@
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="K7">
-        <v>100006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>100006</v>
       </c>
@@ -835,11 +813,8 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="K8">
-        <v>100007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>100007</v>
       </c>
@@ -858,22 +833,16 @@
       <c r="F9" t="s">
         <v>37</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="K9">
-        <v>100008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>100008</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>41</v>
@@ -882,10 +851,10 @@
         <v>41</v>
       </c>
       <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
         <v>48</v>
-      </c>
-      <c r="F10" t="s">
-        <v>49</v>
       </c>
       <c r="G10" s="1">
         <v>30002</v>
@@ -893,16 +862,13 @@
       <c r="H10">
         <v>1</v>
       </c>
-      <c r="K10">
-        <v>100009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>100009</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
         <v>41</v>
@@ -911,10 +877,10 @@
         <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11">
         <v>80001</v>
@@ -922,11 +888,8 @@
       <c r="H11">
         <v>1</v>
       </c>
-      <c r="K11">
-        <v>100010</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+    </row>
+    <row r="12" spans="1:10">
       <c r="H12">
         <v>1</v>
       </c>

--- a/grabDoll/config/task.xlsx
+++ b/grabDoll/config/task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>config_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,6 +221,14 @@
   </si>
   <si>
     <t>pve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>next_task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一个任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -568,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -583,9 +591,10 @@
     <col min="8" max="8" width="40.625" customWidth="1"/>
     <col min="9" max="9" width="46.375" customWidth="1"/>
     <col min="10" max="10" width="14.25" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -616,8 +625,11 @@
       <c r="J1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -648,8 +660,11 @@
       <c r="J2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>100001</v>
       </c>
@@ -678,7 +693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>100002</v>
       </c>
@@ -710,7 +725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>100003</v>
       </c>
@@ -739,7 +754,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>100004</v>
       </c>
@@ -768,7 +783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>100005</v>
       </c>
@@ -790,8 +805,11 @@
       <c r="H7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7">
+        <v>100006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>100006</v>
       </c>
@@ -813,8 +831,11 @@
       <c r="H8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <v>100007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>100007</v>
       </c>
@@ -836,8 +857,11 @@
       <c r="H9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <v>100008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>100008</v>
       </c>
@@ -862,8 +886,11 @@
       <c r="H10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <v>100009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>100009</v>
       </c>
@@ -888,8 +915,11 @@
       <c r="H11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11">
+        <v>100010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="H12">
         <v>1</v>
       </c>

--- a/grabDoll/config/task.xlsx
+++ b/grabDoll/config/task.xlsx
@@ -209,26 +209,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>第4阶段的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>next_task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一个任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>artifact</t>
-  </si>
-  <si>
-    <t>第4阶段的任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手任务副本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>next_task</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一个任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,7 +580,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -626,7 +627,7 @@
         <v>38</v>
       </c>
       <c r="K1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -661,7 +662,7 @@
         <v>39</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -878,11 +879,9 @@
         <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="1">
-        <v>30002</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G10" s="1"/>
       <c r="H10">
         <v>1</v>
       </c>
@@ -895,7 +894,7 @@
         <v>100009</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
         <v>41</v>
@@ -904,13 +903,10 @@
         <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11">
-        <v>80001</v>
+        <v>50</v>
       </c>
       <c r="H11">
         <v>1</v>

--- a/grabDoll/config/task.xlsx
+++ b/grabDoll/config/task.xlsx
@@ -577,21 +577,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="4" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
     <col min="5" max="5" width="18.875" customWidth="1"/>
-    <col min="6" max="7" width="27.875" customWidth="1"/>
-    <col min="8" max="8" width="40.625" customWidth="1"/>
-    <col min="9" max="9" width="46.375" customWidth="1"/>
-    <col min="10" max="10" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="13.375" customWidth="1"/>
+    <col min="9" max="9" width="26.75" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -909,14 +912,6 @@
         <v>50</v>
       </c>
       <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>100010</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="H12">
         <v>1</v>
       </c>
     </row>
